--- a/BlackFieldInstruction/RabiConfig/xlsx/Prefab.xlsx
+++ b/BlackFieldInstruction/RabiConfig/xlsx/Prefab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A6AE8F-2DAD-4385-B29D-D3E0BED7AD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B44212-0006-41F4-BA5F-B716F6D972EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="4980" windowWidth="16605" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5865" yWindow="3705" windowWidth="16605" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,14 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/Prefab/WaitingCommandObj.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/ClickBtnProto.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClickBtnProto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +418,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,8 +493,12 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
